--- a/Data/ROY Data/rookies_95_96.xlsx
+++ b/Data/ROY Data/rookies_95_96.xlsx
@@ -948,76 +948,76 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>307</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>4847</v>
+        <v>560</v>
       </c>
       <c r="I2">
-        <v>587</v>
+        <v>63</v>
       </c>
       <c r="J2">
-        <v>1508</v>
+        <v>155</v>
       </c>
       <c r="K2">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="L2">
-        <v>669</v>
+        <v>66</v>
       </c>
       <c r="M2">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="N2">
-        <v>352</v>
+        <v>25</v>
       </c>
       <c r="O2">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="P2">
-        <v>481</v>
+        <v>42</v>
       </c>
       <c r="Q2">
-        <v>834</v>
+        <v>121</v>
       </c>
       <c r="R2">
-        <v>263</v>
+        <v>27</v>
       </c>
       <c r="S2">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>467</v>
+        <v>68</v>
       </c>
       <c r="U2">
-        <v>514</v>
+        <v>94</v>
       </c>
       <c r="V2">
-        <v>1677</v>
+        <v>168</v>
       </c>
       <c r="W2">
-        <v>0.389</v>
+        <v>0.406</v>
       </c>
       <c r="X2">
-        <v>0.354</v>
+        <v>0.394</v>
       </c>
       <c r="Y2">
-        <v>0.756</v>
+        <v>0.64</v>
       </c>
       <c r="Z2">
-        <v>15.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AA2">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="AB2">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="AC2">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="s">
         <v>154</v>
@@ -1040,76 +1040,76 @@
         <v>23</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>1305</v>
+        <v>362</v>
       </c>
       <c r="I3">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="J3">
-        <v>326</v>
+        <v>105</v>
       </c>
       <c r="K3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="N3">
+        <v>36</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>25</v>
+      </c>
+      <c r="Q3">
+        <v>49</v>
+      </c>
+      <c r="R3">
+        <v>21</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>34</v>
+      </c>
+      <c r="U3">
+        <v>42</v>
+      </c>
+      <c r="V3">
         <v>108</v>
       </c>
-      <c r="O3">
-        <v>30</v>
-      </c>
-      <c r="P3">
-        <v>123</v>
-      </c>
-      <c r="Q3">
-        <v>201</v>
-      </c>
-      <c r="R3">
-        <v>52</v>
-      </c>
-      <c r="S3">
-        <v>9</v>
-      </c>
-      <c r="T3">
-        <v>103</v>
-      </c>
-      <c r="U3">
-        <v>126</v>
-      </c>
-      <c r="V3">
-        <v>336</v>
-      </c>
       <c r="W3">
-        <v>0.35</v>
+        <v>0.343</v>
       </c>
       <c r="X3">
-        <v>0.317</v>
+        <v>0.303</v>
       </c>
       <c r="Y3">
-        <v>0.63</v>
+        <v>0.722</v>
       </c>
       <c r="Z3">
-        <v>11.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA3">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AB3">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AC3">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AD3" t="s">
         <v>154</v>
@@ -1132,76 +1132,73 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>4811</v>
+        <v>357</v>
       </c>
       <c r="I4">
-        <v>663</v>
+        <v>29</v>
       </c>
       <c r="J4">
-        <v>1646</v>
+        <v>70</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <v>33</v>
+      </c>
+      <c r="O4">
         <v>13</v>
       </c>
-      <c r="M4">
-        <v>510</v>
-      </c>
-      <c r="N4">
-        <v>760</v>
-      </c>
-      <c r="O4">
-        <v>230</v>
-      </c>
       <c r="P4">
-        <v>772</v>
+        <v>52</v>
       </c>
       <c r="Q4">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="R4">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="S4">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="T4">
-        <v>386</v>
+        <v>34</v>
       </c>
       <c r="U4">
-        <v>499</v>
+        <v>49</v>
       </c>
       <c r="V4">
-        <v>1837</v>
+        <v>77</v>
       </c>
       <c r="W4">
-        <v>0.403</v>
-      </c>
-      <c r="X4">
-        <v>0.077</v>
+        <v>0.414</v>
       </c>
       <c r="Y4">
-        <v>0.671</v>
+        <v>0.576</v>
       </c>
       <c r="Z4">
-        <v>16.4</v>
+        <v>12.8</v>
       </c>
       <c r="AA4">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="AB4">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AD4" t="s">
         <v>154</v>
@@ -1224,76 +1221,76 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H5">
-        <v>1248</v>
+        <v>1104</v>
       </c>
       <c r="I5">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J5">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="N5">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="O5">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P5">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="Q5">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R5">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="S5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="U5">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="V5">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="W5">
-        <v>0.455</v>
+        <v>0.48</v>
       </c>
       <c r="X5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.633</v>
+        <v>0.651</v>
       </c>
       <c r="Z5">
-        <v>14.7</v>
+        <v>20.4</v>
       </c>
       <c r="AA5">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB5">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="AC5">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD5" t="s">
         <v>154</v>
@@ -1316,76 +1313,76 @@
         <v>24</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>912</v>
+        <v>79</v>
       </c>
       <c r="H6">
-        <v>23643</v>
+        <v>1898</v>
       </c>
       <c r="I6">
-        <v>2896</v>
+        <v>283</v>
       </c>
       <c r="J6">
-        <v>6301</v>
+        <v>597</v>
       </c>
       <c r="K6">
-        <v>1395</v>
+        <v>123</v>
       </c>
       <c r="L6">
-        <v>3442</v>
+        <v>296</v>
       </c>
       <c r="M6">
-        <v>1301</v>
+        <v>111</v>
       </c>
       <c r="N6">
-        <v>1581</v>
+        <v>137</v>
       </c>
       <c r="O6">
-        <v>450</v>
+        <v>38</v>
       </c>
       <c r="P6">
-        <v>2780</v>
+        <v>168</v>
       </c>
       <c r="Q6">
-        <v>2892</v>
+        <v>230</v>
       </c>
       <c r="R6">
-        <v>955</v>
+        <v>95</v>
       </c>
       <c r="S6">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="T6">
-        <v>1289</v>
+        <v>120</v>
       </c>
       <c r="U6">
-        <v>1754</v>
+        <v>196</v>
       </c>
       <c r="V6">
-        <v>8488</v>
+        <v>800</v>
       </c>
       <c r="W6">
-        <v>0.46</v>
+        <v>0.474</v>
       </c>
       <c r="X6">
-        <v>0.405</v>
+        <v>0.416</v>
       </c>
       <c r="Y6">
-        <v>0.823</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z6">
-        <v>25.9</v>
+        <v>24</v>
       </c>
       <c r="AA6">
-        <v>9.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="AC6">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AD6" t="s">
         <v>154</v>
@@ -1408,76 +1405,73 @@
         <v>24</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
         <v>3</v>
       </c>
-      <c r="G7">
-        <v>88</v>
-      </c>
-      <c r="H7">
-        <v>951</v>
-      </c>
-      <c r="I7">
-        <v>93</v>
-      </c>
-      <c r="J7">
-        <v>206</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
         <v>5</v>
       </c>
-      <c r="M7">
-        <v>52</v>
-      </c>
-      <c r="N7">
-        <v>76</v>
-      </c>
-      <c r="O7">
-        <v>36</v>
-      </c>
-      <c r="P7">
-        <v>125</v>
-      </c>
-      <c r="Q7">
-        <v>123</v>
-      </c>
       <c r="R7">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="V7">
-        <v>241</v>
+        <v>5</v>
       </c>
       <c r="W7">
-        <v>0.451</v>
-      </c>
-      <c r="X7">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="Y7">
-        <v>0.6840000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Z7">
-        <v>10.8</v>
+        <v>6.6</v>
       </c>
       <c r="AA7">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>1.4</v>
       </c>
       <c r="AC7">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="s">
         <v>154</v>
@@ -1500,76 +1494,76 @@
         <v>22</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="H8">
-        <v>606</v>
+        <v>230</v>
       </c>
       <c r="I8">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="J8">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8">
+        <v>27</v>
+      </c>
+      <c r="N8">
+        <v>42</v>
+      </c>
+      <c r="O8">
+        <v>21</v>
+      </c>
+      <c r="P8">
+        <v>49</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>11</v>
+      </c>
+      <c r="S8">
+        <v>11</v>
+      </c>
+      <c r="T8">
+        <v>11</v>
+      </c>
+      <c r="U8">
         <v>46</v>
       </c>
-      <c r="N8">
-        <v>90</v>
-      </c>
-      <c r="O8">
-        <v>84</v>
-      </c>
-      <c r="P8">
-        <v>182</v>
-      </c>
-      <c r="Q8">
-        <v>24</v>
-      </c>
-      <c r="R8">
-        <v>31</v>
-      </c>
-      <c r="S8">
-        <v>22</v>
-      </c>
-      <c r="T8">
-        <v>33</v>
-      </c>
-      <c r="U8">
-        <v>112</v>
-      </c>
       <c r="V8">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="W8">
-        <v>0.534</v>
+        <v>0.453</v>
       </c>
       <c r="X8">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.511</v>
+        <v>0.643</v>
       </c>
       <c r="Z8">
-        <v>8.9</v>
+        <v>12.1</v>
       </c>
       <c r="AA8">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AB8">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AC8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD8" t="s">
         <v>154</v>
@@ -1592,76 +1586,76 @@
         <v>23</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>708</v>
+        <v>59</v>
       </c>
       <c r="H9">
-        <v>15150</v>
+        <v>571</v>
       </c>
       <c r="I9">
-        <v>2002</v>
+        <v>69</v>
       </c>
       <c r="J9">
-        <v>4642</v>
+        <v>163</v>
       </c>
       <c r="K9">
-        <v>266</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>772</v>
+        <v>25</v>
       </c>
       <c r="M9">
-        <v>1106</v>
+        <v>75</v>
       </c>
       <c r="N9">
-        <v>1324</v>
+        <v>90</v>
       </c>
       <c r="O9">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="P9">
-        <v>1249</v>
+        <v>44</v>
       </c>
       <c r="Q9">
-        <v>2444</v>
+        <v>97</v>
       </c>
       <c r="R9">
-        <v>661</v>
+        <v>20</v>
       </c>
       <c r="S9">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>928</v>
+        <v>63</v>
       </c>
       <c r="U9">
-        <v>1616</v>
+        <v>80</v>
       </c>
       <c r="V9">
-        <v>5376</v>
+        <v>221</v>
       </c>
       <c r="W9">
-        <v>0.431</v>
+        <v>0.423</v>
       </c>
       <c r="X9">
-        <v>0.345</v>
+        <v>0.32</v>
       </c>
       <c r="Y9">
-        <v>0.835</v>
+        <v>0.833</v>
       </c>
       <c r="Z9">
-        <v>21.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA9">
-        <v>7.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB9">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="AC9">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD9" t="s">
         <v>154</v>
@@ -1684,76 +1678,76 @@
         <v>23</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>561</v>
+        <v>131</v>
       </c>
       <c r="I10">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J10">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="N10">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="O10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q10">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="R10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="U10">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="V10">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="W10">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="X10">
-        <v>0.268</v>
+        <v>0.158</v>
       </c>
       <c r="Y10">
-        <v>0.871</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="Z10">
-        <v>17.5</v>
+        <v>11.9</v>
       </c>
       <c r="AA10">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="AB10">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AC10">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AD10" t="s">
         <v>154</v>
@@ -1776,76 +1770,76 @@
         <v>22</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>41</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>30</v>
-      </c>
-      <c r="H11">
-        <v>195</v>
-      </c>
-      <c r="I11">
-        <v>30</v>
-      </c>
-      <c r="J11">
-        <v>86</v>
-      </c>
-      <c r="K11">
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
         <v>6</v>
       </c>
-      <c r="L11">
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
         <v>24</v>
       </c>
-      <c r="M11">
-        <v>13</v>
-      </c>
-      <c r="N11">
-        <v>26</v>
-      </c>
-      <c r="O11">
-        <v>12</v>
-      </c>
-      <c r="P11">
-        <v>25</v>
-      </c>
-      <c r="Q11">
-        <v>16</v>
-      </c>
-      <c r="R11">
-        <v>13</v>
-      </c>
-      <c r="S11">
-        <v>5</v>
-      </c>
-      <c r="T11">
-        <v>22</v>
-      </c>
-      <c r="U11">
-        <v>19</v>
-      </c>
-      <c r="V11">
-        <v>79</v>
-      </c>
       <c r="W11">
-        <v>0.349</v>
+        <v>0.391</v>
       </c>
       <c r="X11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Y11">
         <v>0.5</v>
       </c>
       <c r="Z11">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="AA11">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AB11">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AC11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD11" t="s">
         <v>154</v>
@@ -2046,76 +2040,76 @@
         <v>22</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>462</v>
+        <v>57</v>
       </c>
       <c r="H14">
-        <v>9045</v>
+        <v>545</v>
       </c>
       <c r="I14">
-        <v>1276</v>
+        <v>71</v>
       </c>
       <c r="J14">
-        <v>2652</v>
+        <v>162</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>816</v>
+        <v>40</v>
       </c>
       <c r="N14">
-        <v>1282</v>
+        <v>68</v>
       </c>
       <c r="O14">
-        <v>841</v>
+        <v>51</v>
       </c>
       <c r="P14">
-        <v>2022</v>
+        <v>111</v>
       </c>
       <c r="Q14">
-        <v>420</v>
+        <v>24</v>
       </c>
       <c r="R14">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="S14">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="T14">
-        <v>647</v>
+        <v>48</v>
       </c>
       <c r="U14">
-        <v>1148</v>
+        <v>91</v>
       </c>
       <c r="V14">
-        <v>3368</v>
+        <v>182</v>
       </c>
       <c r="W14">
-        <v>0.481</v>
+        <v>0.438</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0.637</v>
+        <v>0.588</v>
       </c>
       <c r="Z14">
-        <v>19.6</v>
+        <v>9.6</v>
       </c>
       <c r="AA14">
-        <v>7.3</v>
+        <v>3.2</v>
       </c>
       <c r="AB14">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="AC14">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AD14" t="s">
         <v>154</v>
@@ -2138,76 +2132,76 @@
         <v>21</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>297</v>
+        <v>60</v>
       </c>
       <c r="H15">
-        <v>4505</v>
+        <v>590</v>
       </c>
       <c r="I15">
-        <v>730</v>
+        <v>90</v>
       </c>
       <c r="J15">
-        <v>1753</v>
+        <v>217</v>
       </c>
       <c r="K15">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="L15">
-        <v>470</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="N15">
-        <v>457</v>
+        <v>60</v>
       </c>
       <c r="O15">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="P15">
-        <v>658</v>
+        <v>102</v>
       </c>
       <c r="Q15">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="R15">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="S15">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="T15">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="U15">
-        <v>502</v>
+        <v>77</v>
       </c>
       <c r="V15">
-        <v>1988</v>
+        <v>240</v>
       </c>
       <c r="W15">
-        <v>0.416</v>
+        <v>0.415</v>
       </c>
       <c r="X15">
-        <v>0.338</v>
+        <v>0.262</v>
       </c>
       <c r="Y15">
-        <v>0.8070000000000001</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="Z15">
-        <v>15.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA15">
-        <v>6.7</v>
+        <v>4</v>
       </c>
       <c r="AB15">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD15" t="s">
         <v>154</v>
@@ -2230,76 +2224,76 @@
         <v>23</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H16">
-        <v>405</v>
+        <v>250</v>
       </c>
       <c r="I16">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J16">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="K16">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L16">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M16">
+        <v>22</v>
+      </c>
+      <c r="N16">
+        <v>27</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>19</v>
+      </c>
+      <c r="Q16">
+        <v>32</v>
+      </c>
+      <c r="R16">
+        <v>8</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
         <v>28</v>
       </c>
-      <c r="N16">
-        <v>35</v>
-      </c>
-      <c r="O16">
-        <v>2</v>
-      </c>
-      <c r="P16">
-        <v>25</v>
-      </c>
-      <c r="Q16">
-        <v>49</v>
-      </c>
-      <c r="R16">
-        <v>17</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>46</v>
-      </c>
       <c r="U16">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="V16">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="W16">
-        <v>0.328</v>
+        <v>0.316</v>
       </c>
       <c r="X16">
-        <v>0.273</v>
+        <v>0.277</v>
       </c>
       <c r="Y16">
-        <v>0.8</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="Z16">
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
       <c r="AA16">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AB16">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD16" t="s">
         <v>154</v>
@@ -2497,19 +2491,19 @@
         <v>24</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="I19">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2518,52 +2512,49 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P19">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="W19">
-        <v>0.409</v>
-      </c>
-      <c r="Y19">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="Z19">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="AA19">
         <v>1.6</v>
       </c>
       <c r="AB19">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AC19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD19" t="s">
         <v>154</v>
@@ -2678,76 +2669,76 @@
         <v>25</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H21">
-        <v>2331</v>
+        <v>542</v>
       </c>
       <c r="I21">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="J21">
-        <v>754</v>
+        <v>184</v>
       </c>
       <c r="K21">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="L21">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="M21">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="N21">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="O21">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P21">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="Q21">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="R21">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="S21">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T21">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="U21">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="V21">
-        <v>957</v>
+        <v>255</v>
       </c>
       <c r="W21">
-        <v>0.439</v>
+        <v>0.451</v>
       </c>
       <c r="X21">
-        <v>0.379</v>
+        <v>0.436</v>
       </c>
       <c r="Y21">
-        <v>0.789</v>
+        <v>0.764</v>
       </c>
       <c r="Z21">
-        <v>31.1</v>
+        <v>28.5</v>
       </c>
       <c r="AA21">
-        <v>12.8</v>
+        <v>13.4</v>
       </c>
       <c r="AB21">
         <v>2.4</v>
       </c>
       <c r="AC21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AD21" t="s">
         <v>154</v>
@@ -2770,76 +2761,76 @@
         <v>22</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="H22">
-        <v>3681</v>
+        <v>571</v>
       </c>
       <c r="I22">
-        <v>473</v>
+        <v>55</v>
       </c>
       <c r="J22">
-        <v>1071</v>
+        <v>149</v>
       </c>
       <c r="K22">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="N22">
-        <v>438</v>
+        <v>116</v>
       </c>
       <c r="O22">
-        <v>291</v>
+        <v>56</v>
       </c>
       <c r="P22">
-        <v>697</v>
+        <v>125</v>
       </c>
       <c r="Q22">
-        <v>294</v>
+        <v>47</v>
       </c>
       <c r="R22">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="S22">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="T22">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="U22">
-        <v>481</v>
+        <v>92</v>
       </c>
       <c r="V22">
-        <v>1261</v>
+        <v>188</v>
       </c>
       <c r="W22">
-        <v>0.442</v>
+        <v>0.369</v>
       </c>
       <c r="X22">
-        <v>0.246</v>
+        <v>0.308</v>
       </c>
       <c r="Y22">
-        <v>0.655</v>
+        <v>0.638</v>
       </c>
       <c r="Z22">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AA22">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB22">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AC22">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AD22" t="s">
         <v>154</v>
@@ -2862,76 +2853,76 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>587</v>
+        <v>22</v>
       </c>
       <c r="H23">
-        <v>9847</v>
+        <v>203</v>
       </c>
       <c r="I23">
-        <v>1118</v>
+        <v>24</v>
       </c>
       <c r="J23">
-        <v>2207</v>
+        <v>50</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>579</v>
+        <v>11</v>
       </c>
       <c r="N23">
-        <v>932</v>
+        <v>19</v>
       </c>
       <c r="O23">
-        <v>1025</v>
+        <v>18</v>
       </c>
       <c r="P23">
-        <v>2488</v>
+        <v>39</v>
       </c>
       <c r="Q23">
-        <v>339</v>
+        <v>9</v>
       </c>
       <c r="R23">
-        <v>390</v>
+        <v>7</v>
       </c>
       <c r="S23">
-        <v>301</v>
+        <v>5</v>
       </c>
       <c r="T23">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="U23">
-        <v>1789</v>
+        <v>30</v>
       </c>
       <c r="V23">
-        <v>2815</v>
+        <v>59</v>
       </c>
       <c r="W23">
-        <v>0.507</v>
+        <v>0.48</v>
       </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.621</v>
+        <v>0.579</v>
       </c>
       <c r="Z23">
-        <v>16.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA23">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="AB23">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="AC23">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD23" t="s">
         <v>154</v>
@@ -2954,76 +2945,76 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="H24">
-        <v>4743</v>
+        <v>2481</v>
       </c>
       <c r="I24">
-        <v>583</v>
+        <v>305</v>
       </c>
       <c r="J24">
-        <v>1438</v>
+        <v>740</v>
       </c>
       <c r="K24">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L24">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="M24">
-        <v>497</v>
+        <v>197</v>
       </c>
       <c r="N24">
-        <v>617</v>
+        <v>252</v>
       </c>
       <c r="O24">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="P24">
-        <v>393</v>
+        <v>201</v>
       </c>
       <c r="Q24">
-        <v>910</v>
+        <v>491</v>
       </c>
       <c r="R24">
-        <v>217</v>
+        <v>89</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T24">
-        <v>395</v>
+        <v>192</v>
       </c>
       <c r="U24">
-        <v>387</v>
+        <v>203</v>
       </c>
       <c r="V24">
-        <v>1728</v>
+        <v>860</v>
       </c>
       <c r="W24">
-        <v>0.405</v>
+        <v>0.412</v>
       </c>
       <c r="X24">
-        <v>0.322</v>
+        <v>0.368</v>
       </c>
       <c r="Y24">
-        <v>0.806</v>
+        <v>0.782</v>
       </c>
       <c r="Z24">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AA24">
-        <v>7.6</v>
+        <v>10.8</v>
       </c>
       <c r="AB24">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="AC24">
-        <v>4</v>
+        <v>6.1</v>
       </c>
       <c r="AD24" t="s">
         <v>154</v>
@@ -3138,76 +3129,76 @@
         <v>22</v>
       </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>82</v>
+      </c>
+      <c r="H26">
+        <v>3212</v>
+      </c>
+      <c r="I26">
+        <v>465</v>
+      </c>
+      <c r="J26">
+        <v>976</v>
+      </c>
+      <c r="K26">
+        <v>61</v>
+      </c>
+      <c r="L26">
+        <v>186</v>
+      </c>
+      <c r="M26">
+        <v>242</v>
+      </c>
+      <c r="N26">
+        <v>323</v>
+      </c>
+      <c r="O26">
+        <v>139</v>
+      </c>
+      <c r="P26">
+        <v>374</v>
+      </c>
+      <c r="Q26">
+        <v>289</v>
+      </c>
+      <c r="R26">
+        <v>85</v>
+      </c>
+      <c r="S26">
+        <v>31</v>
+      </c>
+      <c r="T26">
+        <v>133</v>
+      </c>
+      <c r="U26">
+        <v>199</v>
+      </c>
+      <c r="V26">
+        <v>1233</v>
+      </c>
+      <c r="W26">
+        <v>0.476</v>
+      </c>
+      <c r="X26">
+        <v>0.328</v>
+      </c>
+      <c r="Y26">
+        <v>0.749</v>
+      </c>
+      <c r="Z26">
+        <v>39.2</v>
+      </c>
+      <c r="AA26">
         <v>15</v>
       </c>
-      <c r="G26">
-        <v>1103</v>
-      </c>
-      <c r="H26">
-        <v>37996</v>
-      </c>
-      <c r="I26">
-        <v>6696</v>
-      </c>
-      <c r="J26">
-        <v>15095</v>
-      </c>
-      <c r="K26">
-        <v>1454</v>
-      </c>
-      <c r="L26">
-        <v>3880</v>
-      </c>
-      <c r="M26">
-        <v>2460</v>
-      </c>
-      <c r="N26">
-        <v>3032</v>
-      </c>
-      <c r="O26">
-        <v>1121</v>
-      </c>
-      <c r="P26">
-        <v>4804</v>
-      </c>
-      <c r="Q26">
-        <v>3245</v>
-      </c>
-      <c r="R26">
-        <v>996</v>
-      </c>
-      <c r="S26">
-        <v>323</v>
-      </c>
-      <c r="T26">
-        <v>1629</v>
-      </c>
-      <c r="U26">
-        <v>1812</v>
-      </c>
-      <c r="V26">
-        <v>17306</v>
-      </c>
-      <c r="W26">
-        <v>0.444</v>
-      </c>
-      <c r="X26">
-        <v>0.375</v>
-      </c>
-      <c r="Y26">
-        <v>0.8110000000000001</v>
-      </c>
-      <c r="Z26">
-        <v>34.4</v>
-      </c>
-      <c r="AA26">
-        <v>15.7</v>
-      </c>
       <c r="AB26">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AC26">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AD26" t="s">
         <v>154</v>
@@ -3322,76 +3313,76 @@
         <v>19</v>
       </c>
       <c r="F28">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1462</v>
+        <v>80</v>
       </c>
       <c r="H28">
-        <v>50418</v>
+        <v>2293</v>
       </c>
       <c r="I28">
-        <v>10505</v>
+        <v>361</v>
       </c>
       <c r="J28">
-        <v>21142</v>
+        <v>735</v>
       </c>
       <c r="K28">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="L28">
-        <v>632</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>4887</v>
+        <v>105</v>
       </c>
       <c r="N28">
-        <v>6190</v>
+        <v>149</v>
       </c>
       <c r="O28">
-        <v>3209</v>
+        <v>175</v>
       </c>
       <c r="P28">
-        <v>14662</v>
+        <v>501</v>
       </c>
       <c r="Q28">
-        <v>5445</v>
+        <v>145</v>
       </c>
       <c r="R28">
-        <v>1859</v>
+        <v>86</v>
       </c>
       <c r="S28">
-        <v>2037</v>
+        <v>131</v>
       </c>
       <c r="T28">
-        <v>3179</v>
+        <v>110</v>
       </c>
       <c r="U28">
-        <v>3561</v>
+        <v>189</v>
       </c>
       <c r="V28">
-        <v>26071</v>
+        <v>835</v>
       </c>
       <c r="W28">
-        <v>0.497</v>
+        <v>0.491</v>
       </c>
       <c r="X28">
-        <v>0.275</v>
+        <v>0.286</v>
       </c>
       <c r="Y28">
-        <v>0.789</v>
+        <v>0.705</v>
       </c>
       <c r="Z28">
-        <v>34.5</v>
+        <v>28.7</v>
       </c>
       <c r="AA28">
-        <v>17.8</v>
+        <v>10.4</v>
       </c>
       <c r="AB28">
-        <v>10</v>
+        <v>6.3</v>
       </c>
       <c r="AC28">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD28" t="s">
         <v>154</v>
@@ -3414,76 +3405,76 @@
         <v>24</v>
       </c>
       <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>42</v>
+      </c>
+      <c r="H29">
+        <v>621</v>
+      </c>
+      <c r="I29">
+        <v>76</v>
+      </c>
+      <c r="J29">
+        <v>189</v>
+      </c>
+      <c r="K29">
+        <v>33</v>
+      </c>
+      <c r="L29">
+        <v>83</v>
+      </c>
+      <c r="M29">
+        <v>46</v>
+      </c>
+      <c r="N29">
+        <v>60</v>
+      </c>
+      <c r="O29">
         <v>8</v>
       </c>
-      <c r="G29">
-        <v>266</v>
-      </c>
-      <c r="H29">
-        <v>4951</v>
-      </c>
-      <c r="I29">
-        <v>580</v>
-      </c>
-      <c r="J29">
-        <v>1425</v>
-      </c>
-      <c r="K29">
-        <v>206</v>
-      </c>
-      <c r="L29">
-        <v>533</v>
-      </c>
-      <c r="M29">
-        <v>301</v>
-      </c>
-      <c r="N29">
-        <v>380</v>
-      </c>
-      <c r="O29">
-        <v>72</v>
-      </c>
       <c r="P29">
-        <v>359</v>
+        <v>43</v>
       </c>
       <c r="Q29">
-        <v>737</v>
+        <v>112</v>
       </c>
       <c r="R29">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="S29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>264</v>
+        <v>63</v>
       </c>
       <c r="U29">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="V29">
-        <v>1667</v>
+        <v>231</v>
       </c>
       <c r="W29">
-        <v>0.407</v>
+        <v>0.402</v>
       </c>
       <c r="X29">
-        <v>0.386</v>
+        <v>0.398</v>
       </c>
       <c r="Y29">
-        <v>0.792</v>
+        <v>0.767</v>
       </c>
       <c r="Z29">
-        <v>18.6</v>
+        <v>14.8</v>
       </c>
       <c r="AA29">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="AB29">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AD29" t="s">
         <v>154</v>
@@ -3506,73 +3497,73 @@
         <v>20</v>
       </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>70</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <v>31</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30">
+        <v>18</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+      <c r="P30">
+        <v>22</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>9</v>
+      </c>
+      <c r="T30">
+        <v>9</v>
+      </c>
+      <c r="U30">
+        <v>12</v>
+      </c>
+      <c r="V30">
+        <v>25</v>
+      </c>
+      <c r="W30">
+        <v>0.29</v>
+      </c>
+      <c r="Y30">
+        <v>0.389</v>
+      </c>
+      <c r="Z30">
+        <v>6.4</v>
+      </c>
+      <c r="AA30">
+        <v>2.3</v>
+      </c>
+      <c r="AB30">
         <v>2</v>
       </c>
-      <c r="G30">
-        <v>33</v>
-      </c>
-      <c r="H30">
-        <v>343</v>
-      </c>
-      <c r="I30">
-        <v>44</v>
-      </c>
-      <c r="J30">
-        <v>110</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>19</v>
-      </c>
-      <c r="N30">
-        <v>41</v>
-      </c>
-      <c r="O30">
-        <v>41</v>
-      </c>
-      <c r="P30">
-        <v>112</v>
-      </c>
-      <c r="Q30">
-        <v>16</v>
-      </c>
-      <c r="R30">
-        <v>4</v>
-      </c>
-      <c r="S30">
-        <v>23</v>
-      </c>
-      <c r="T30">
-        <v>37</v>
-      </c>
-      <c r="U30">
-        <v>37</v>
-      </c>
-      <c r="V30">
-        <v>107</v>
-      </c>
-      <c r="W30">
-        <v>0.4</v>
-      </c>
-      <c r="Y30">
-        <v>0.463</v>
-      </c>
-      <c r="Z30">
-        <v>10.4</v>
-      </c>
-      <c r="AA30">
-        <v>3.2</v>
-      </c>
-      <c r="AB30">
-        <v>3.4</v>
-      </c>
       <c r="AC30">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD30" t="s">
         <v>154</v>
@@ -3684,73 +3675,73 @@
         <v>23</v>
       </c>
       <c r="F32">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="H32">
-        <v>13780</v>
+        <v>1416</v>
       </c>
       <c r="I32">
-        <v>1976</v>
+        <v>192</v>
       </c>
       <c r="J32">
-        <v>4215</v>
+        <v>434</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>1137</v>
+        <v>119</v>
       </c>
       <c r="N32">
-        <v>1778</v>
+        <v>200</v>
       </c>
       <c r="O32">
-        <v>1426</v>
+        <v>164</v>
       </c>
       <c r="P32">
-        <v>3249</v>
+        <v>356</v>
       </c>
       <c r="Q32">
-        <v>397</v>
+        <v>51</v>
       </c>
       <c r="R32">
-        <v>364</v>
+        <v>44</v>
       </c>
       <c r="S32">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c r="T32">
-        <v>717</v>
+        <v>87</v>
       </c>
       <c r="U32">
-        <v>1436</v>
+        <v>217</v>
       </c>
       <c r="V32">
-        <v>5094</v>
+        <v>503</v>
       </c>
       <c r="W32">
-        <v>0.469</v>
+        <v>0.442</v>
       </c>
       <c r="X32">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>0.639</v>
+        <v>0.595</v>
       </c>
       <c r="Z32">
-        <v>21.1</v>
+        <v>17.9</v>
       </c>
       <c r="AA32">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="AB32">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AC32">
         <v>0.6</v>
@@ -3776,76 +3767,76 @@
         <v>23</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>541</v>
+        <v>15</v>
       </c>
       <c r="H33">
-        <v>9978</v>
+        <v>85</v>
       </c>
       <c r="I33">
-        <v>959</v>
+        <v>8</v>
       </c>
       <c r="J33">
-        <v>2227</v>
+        <v>19</v>
       </c>
       <c r="K33">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>941</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>653</v>
+        <v>15</v>
       </c>
       <c r="N33">
-        <v>765</v>
+        <v>18</v>
       </c>
       <c r="O33">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="P33">
-        <v>1438</v>
+        <v>9</v>
       </c>
       <c r="Q33">
-        <v>846</v>
+        <v>8</v>
       </c>
       <c r="R33">
-        <v>428</v>
+        <v>6</v>
       </c>
       <c r="S33">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>292</v>
+        <v>7</v>
       </c>
       <c r="U33">
-        <v>783</v>
+        <v>12</v>
       </c>
       <c r="V33">
-        <v>2944</v>
+        <v>32</v>
       </c>
       <c r="W33">
-        <v>0.431</v>
+        <v>0.421</v>
       </c>
       <c r="X33">
-        <v>0.396</v>
+        <v>0.333</v>
       </c>
       <c r="Y33">
-        <v>0.854</v>
+        <v>0.833</v>
       </c>
       <c r="Z33">
-        <v>18.4</v>
+        <v>5.7</v>
       </c>
       <c r="AA33">
-        <v>5.4</v>
+        <v>2.1</v>
       </c>
       <c r="AB33">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="AC33">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD33" t="s">
         <v>154</v>
@@ -3960,76 +3951,76 @@
         <v>23</v>
       </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>11</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
         <v>2</v>
       </c>
-      <c r="G35">
-        <v>13</v>
-      </c>
-      <c r="H35">
-        <v>79</v>
-      </c>
-      <c r="I35">
-        <v>10</v>
-      </c>
-      <c r="J35">
-        <v>28</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>3</v>
-      </c>
-      <c r="M35">
-        <v>6</v>
-      </c>
-      <c r="N35">
-        <v>8</v>
-      </c>
-      <c r="O35">
-        <v>5</v>
-      </c>
-      <c r="P35">
-        <v>16</v>
-      </c>
       <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+      <c r="V35">
         <v>7</v>
       </c>
-      <c r="R35">
-        <v>6</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>5</v>
-      </c>
-      <c r="U35">
-        <v>11</v>
-      </c>
-      <c r="V35">
-        <v>27</v>
-      </c>
       <c r="W35">
-        <v>0.357</v>
+        <v>0.273</v>
       </c>
       <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
         <v>0.333</v>
       </c>
-      <c r="Y35">
-        <v>0.75</v>
-      </c>
       <c r="Z35">
-        <v>6.1</v>
+        <v>3.3</v>
       </c>
       <c r="AA35">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="AB35">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD35" t="s">
         <v>154</v>
@@ -4052,19 +4043,19 @@
         <v>22</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H36">
-        <v>890</v>
+        <v>868</v>
       </c>
       <c r="I36">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J36">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -4073,46 +4064,46 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N36">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O36">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P36">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q36">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R36">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S36">
         <v>13</v>
       </c>
       <c r="T36">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U36">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="V36">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="W36">
-        <v>0.429</v>
+        <v>0.431</v>
       </c>
       <c r="X36">
         <v>0.147</v>
       </c>
       <c r="Y36">
-        <v>0.6909999999999999</v>
+        <v>0.701</v>
       </c>
       <c r="Z36">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="AA36">
         <v>4.5</v>
@@ -4144,76 +4135,76 @@
         <v>22</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>565</v>
+        <v>30</v>
       </c>
       <c r="H37">
-        <v>15349</v>
+        <v>323</v>
       </c>
       <c r="I37">
-        <v>2444</v>
+        <v>53</v>
       </c>
       <c r="J37">
-        <v>5892</v>
+        <v>141</v>
       </c>
       <c r="K37">
-        <v>936</v>
+        <v>36</v>
       </c>
       <c r="L37">
-        <v>2437</v>
+        <v>101</v>
       </c>
       <c r="M37">
-        <v>921</v>
+        <v>34</v>
       </c>
       <c r="N37">
-        <v>1171</v>
+        <v>43</v>
       </c>
       <c r="O37">
-        <v>347</v>
+        <v>12</v>
       </c>
       <c r="P37">
-        <v>1609</v>
+        <v>52</v>
       </c>
       <c r="Q37">
-        <v>1180</v>
+        <v>31</v>
       </c>
       <c r="R37">
-        <v>424</v>
+        <v>6</v>
       </c>
       <c r="S37">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>748</v>
+        <v>23</v>
       </c>
       <c r="U37">
-        <v>1212</v>
+        <v>31</v>
       </c>
       <c r="V37">
-        <v>6745</v>
+        <v>176</v>
       </c>
       <c r="W37">
-        <v>0.415</v>
+        <v>0.376</v>
       </c>
       <c r="X37">
-        <v>0.384</v>
+        <v>0.356</v>
       </c>
       <c r="Y37">
-        <v>0.787</v>
+        <v>0.791</v>
       </c>
       <c r="Z37">
-        <v>27.2</v>
+        <v>10.8</v>
       </c>
       <c r="AA37">
-        <v>11.9</v>
+        <v>5.9</v>
       </c>
       <c r="AB37">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="AC37">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="AD37" t="s">
         <v>154</v>
@@ -4322,76 +4313,76 @@
         <v>20</v>
       </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>16</v>
+      </c>
+      <c r="H39">
+        <v>189</v>
+      </c>
+      <c r="I39">
+        <v>29</v>
+      </c>
+      <c r="J39">
+        <v>60</v>
+      </c>
+      <c r="K39">
         <v>2</v>
       </c>
-      <c r="G39">
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>15</v>
+      </c>
+      <c r="N39">
         <v>25</v>
       </c>
-      <c r="H39">
-        <v>239</v>
-      </c>
-      <c r="I39">
-        <v>35</v>
-      </c>
-      <c r="J39">
-        <v>74</v>
-      </c>
-      <c r="K39">
+      <c r="O39">
+        <v>15</v>
+      </c>
+      <c r="P39">
+        <v>29</v>
+      </c>
+      <c r="Q39">
         <v>3</v>
       </c>
-      <c r="L39">
-        <v>10</v>
-      </c>
-      <c r="M39">
-        <v>16</v>
-      </c>
-      <c r="N39">
-        <v>27</v>
-      </c>
-      <c r="O39">
-        <v>19</v>
-      </c>
-      <c r="P39">
-        <v>35</v>
-      </c>
-      <c r="Q39">
-        <v>7</v>
-      </c>
       <c r="R39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U39">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="V39">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="W39">
-        <v>0.473</v>
+        <v>0.483</v>
       </c>
       <c r="X39">
-        <v>0.3</v>
+        <v>0.286</v>
       </c>
       <c r="Y39">
-        <v>0.593</v>
+        <v>0.6</v>
       </c>
       <c r="Z39">
-        <v>9.6</v>
+        <v>11.8</v>
       </c>
       <c r="AA39">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="AB39">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AC39">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD39" t="s">
         <v>154</v>
@@ -4414,73 +4405,73 @@
         <v>25</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40">
+        <v>29</v>
+      </c>
+      <c r="H40">
+        <v>311</v>
+      </c>
+      <c r="I40">
+        <v>49</v>
+      </c>
+      <c r="J40">
+        <v>113</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>9</v>
+      </c>
+      <c r="N40">
+        <v>14</v>
+      </c>
+      <c r="O40">
+        <v>16</v>
+      </c>
+      <c r="P40">
         <v>55</v>
       </c>
-      <c r="H40">
-        <v>512</v>
-      </c>
-      <c r="I40">
-        <v>81</v>
-      </c>
-      <c r="J40">
-        <v>195</v>
-      </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <v>5</v>
-      </c>
-      <c r="M40">
-        <v>18</v>
-      </c>
-      <c r="N40">
-        <v>28</v>
-      </c>
-      <c r="O40">
-        <v>32</v>
-      </c>
-      <c r="P40">
-        <v>94</v>
-      </c>
       <c r="Q40">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T40">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="U40">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="V40">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="W40">
-        <v>0.415</v>
+        <v>0.434</v>
       </c>
       <c r="X40">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0.643</v>
       </c>
       <c r="Z40">
-        <v>9.300000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="AA40">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AB40">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AC40">
         <v>0.2</v>
@@ -4506,76 +4497,76 @@
         <v>23</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>919</v>
+        <v>208</v>
       </c>
       <c r="I41">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="J41">
-        <v>271</v>
+        <v>68</v>
       </c>
       <c r="K41">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="L41">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="M41">
+        <v>22</v>
+      </c>
+      <c r="N41">
+        <v>35</v>
+      </c>
+      <c r="O41">
+        <v>9</v>
+      </c>
+      <c r="P41">
+        <v>26</v>
+      </c>
+      <c r="Q41">
+        <v>7</v>
+      </c>
+      <c r="R41">
+        <v>8</v>
+      </c>
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>7</v>
+      </c>
+      <c r="U41">
+        <v>26</v>
+      </c>
+      <c r="V41">
         <v>77</v>
       </c>
-      <c r="N41">
-        <v>113</v>
-      </c>
-      <c r="O41">
-        <v>39</v>
-      </c>
-      <c r="P41">
-        <v>121</v>
-      </c>
-      <c r="Q41">
-        <v>36</v>
-      </c>
-      <c r="R41">
-        <v>37</v>
-      </c>
-      <c r="S41">
-        <v>5</v>
-      </c>
-      <c r="T41">
-        <v>45</v>
-      </c>
-      <c r="U41">
-        <v>107</v>
-      </c>
-      <c r="V41">
-        <v>293</v>
-      </c>
       <c r="W41">
-        <v>0.321</v>
+        <v>0.353</v>
       </c>
       <c r="X41">
-        <v>0.336</v>
+        <v>0.233</v>
       </c>
       <c r="Y41">
-        <v>0.681</v>
+        <v>0.629</v>
       </c>
       <c r="Z41">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="AA41">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC41">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD41" t="s">
         <v>154</v>
@@ -4598,25 +4589,25 @@
         <v>24</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I42">
         <v>3</v>
       </c>
       <c r="J42">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
       <c r="L42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4625,13 +4616,13 @@
         <v>2</v>
       </c>
       <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
         <v>2</v>
       </c>
-      <c r="P42">
-        <v>3</v>
-      </c>
       <c r="Q42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -4640,34 +4631,34 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V42">
         <v>9</v>
       </c>
       <c r="W42">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="X42">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AA42">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="AB42">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AC42">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD42" t="s">
         <v>154</v>
@@ -4782,76 +4773,76 @@
         <v>21</v>
       </c>
       <c r="F44">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>1015</v>
+        <v>76</v>
       </c>
       <c r="H44">
-        <v>28053</v>
+        <v>2280</v>
       </c>
       <c r="I44">
-        <v>5046</v>
+        <v>427</v>
       </c>
       <c r="J44">
-        <v>10161</v>
+        <v>881</v>
       </c>
       <c r="K44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>2128</v>
+        <v>166</v>
       </c>
       <c r="N44">
-        <v>3178</v>
+        <v>243</v>
       </c>
       <c r="O44">
-        <v>2478</v>
+        <v>229</v>
       </c>
       <c r="P44">
-        <v>7638</v>
+        <v>572</v>
       </c>
       <c r="Q44">
-        <v>1300</v>
+        <v>75</v>
       </c>
       <c r="R44">
-        <v>782</v>
+        <v>54</v>
       </c>
       <c r="S44">
-        <v>1102</v>
+        <v>114</v>
       </c>
       <c r="T44">
-        <v>1623</v>
+        <v>154</v>
       </c>
       <c r="U44">
-        <v>3077</v>
+        <v>250</v>
       </c>
       <c r="V44">
-        <v>12227</v>
+        <v>1020</v>
       </c>
       <c r="W44">
-        <v>0.497</v>
+        <v>0.485</v>
       </c>
       <c r="X44">
-        <v>0.117</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>0.67</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="Z44">
-        <v>27.6</v>
+        <v>30</v>
       </c>
       <c r="AA44">
-        <v>12</v>
+        <v>13.4</v>
       </c>
       <c r="AB44">
         <v>7.5</v>
       </c>
       <c r="AC44">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AD44" t="s">
         <v>154</v>
@@ -4874,76 +4865,76 @@
         <v>23</v>
       </c>
       <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>72</v>
+      </c>
+      <c r="H45">
+        <v>1266</v>
+      </c>
+      <c r="I45">
+        <v>145</v>
+      </c>
+      <c r="J45">
+        <v>330</v>
+      </c>
+      <c r="K45">
         <v>3</v>
       </c>
-      <c r="G45">
-        <v>140</v>
-      </c>
-      <c r="H45">
-        <v>2044</v>
-      </c>
-      <c r="I45">
-        <v>260</v>
-      </c>
-      <c r="J45">
-        <v>602</v>
-      </c>
-      <c r="K45">
-        <v>8</v>
-      </c>
       <c r="L45">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M45">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="N45">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="O45">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="P45">
-        <v>480</v>
+        <v>319</v>
       </c>
       <c r="Q45">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="R45">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="S45">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="T45">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="U45">
-        <v>371</v>
+        <v>224</v>
       </c>
       <c r="V45">
-        <v>645</v>
+        <v>363</v>
       </c>
       <c r="W45">
-        <v>0.432</v>
+        <v>0.439</v>
       </c>
       <c r="X45">
-        <v>0.348</v>
+        <v>0.273</v>
       </c>
       <c r="Y45">
-        <v>0.696</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="Z45">
-        <v>14.6</v>
+        <v>17.6</v>
       </c>
       <c r="AA45">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AB45">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="AC45">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD45" t="s">
         <v>154</v>
@@ -4966,76 +4957,76 @@
         <v>23</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="H46">
-        <v>1814</v>
+        <v>573</v>
       </c>
       <c r="I46">
-        <v>286</v>
+        <v>112</v>
       </c>
       <c r="J46">
-        <v>701</v>
+        <v>247</v>
       </c>
       <c r="K46">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="L46">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="M46">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="N46">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="O46">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="P46">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="Q46">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="R46">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="S46">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="T46">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="U46">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="V46">
-        <v>747</v>
+        <v>291</v>
       </c>
       <c r="W46">
-        <v>0.408</v>
+        <v>0.453</v>
       </c>
       <c r="X46">
-        <v>0.299</v>
+        <v>0.327</v>
       </c>
       <c r="Y46">
-        <v>0.652</v>
+        <v>0.653</v>
       </c>
       <c r="Z46">
-        <v>15.2</v>
+        <v>13</v>
       </c>
       <c r="AA46">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AB46">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AC46">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AD46" t="s">
         <v>154</v>
@@ -5239,76 +5230,76 @@
         <v>23</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H49">
-        <v>2062</v>
+        <v>1253</v>
       </c>
       <c r="I49">
-        <v>249</v>
+        <v>156</v>
       </c>
       <c r="J49">
-        <v>679</v>
+        <v>400</v>
       </c>
       <c r="K49">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="L49">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="M49">
+        <v>77</v>
+      </c>
+      <c r="N49">
         <v>108</v>
       </c>
-      <c r="N49">
-        <v>143</v>
-      </c>
       <c r="O49">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="P49">
-        <v>316</v>
+        <v>168</v>
       </c>
       <c r="Q49">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R49">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="S49">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="T49">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="U49">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="V49">
-        <v>634</v>
+        <v>399</v>
       </c>
       <c r="W49">
-        <v>0.367</v>
+        <v>0.39</v>
       </c>
       <c r="X49">
-        <v>0.222</v>
+        <v>0.179</v>
       </c>
       <c r="Y49">
-        <v>0.755</v>
+        <v>0.713</v>
       </c>
       <c r="Z49">
-        <v>16.1</v>
+        <v>19.6</v>
       </c>
       <c r="AA49">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="AB49">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AC49">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD49" t="s">
         <v>154</v>
@@ -5331,76 +5322,73 @@
         <v>22</v>
       </c>
       <c r="F50">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>756</v>
+        <v>57</v>
       </c>
       <c r="H50">
-        <v>14753</v>
+        <v>661</v>
       </c>
       <c r="I50">
-        <v>1339</v>
+        <v>86</v>
       </c>
       <c r="J50">
-        <v>2757</v>
+        <v>182</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>833</v>
+        <v>36</v>
       </c>
       <c r="N50">
-        <v>1465</v>
+        <v>54</v>
       </c>
       <c r="O50">
-        <v>1475</v>
+        <v>57</v>
       </c>
       <c r="P50">
-        <v>4145</v>
+        <v>175</v>
       </c>
       <c r="Q50">
-        <v>443</v>
+        <v>5</v>
       </c>
       <c r="R50">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="S50">
-        <v>1293</v>
+        <v>63</v>
       </c>
       <c r="T50">
-        <v>684</v>
+        <v>25</v>
       </c>
       <c r="U50">
-        <v>1873</v>
+        <v>91</v>
       </c>
       <c r="V50">
-        <v>3512</v>
+        <v>208</v>
       </c>
       <c r="W50">
-        <v>0.486</v>
-      </c>
-      <c r="X50">
+        <v>0.473</v>
+      </c>
+      <c r="Y50">
+        <v>0.667</v>
+      </c>
+      <c r="Z50">
+        <v>11.6</v>
+      </c>
+      <c r="AA50">
+        <v>3.6</v>
+      </c>
+      <c r="AB50">
+        <v>3.1</v>
+      </c>
+      <c r="AC50">
         <v>0.1</v>
-      </c>
-      <c r="Y50">
-        <v>0.569</v>
-      </c>
-      <c r="Z50">
-        <v>19.5</v>
-      </c>
-      <c r="AA50">
-        <v>4.6</v>
-      </c>
-      <c r="AB50">
-        <v>5.5</v>
-      </c>
-      <c r="AC50">
-        <v>0.6</v>
       </c>
       <c r="AD50" t="s">
         <v>154</v>
@@ -5423,76 +5411,76 @@
         <v>23</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>472</v>
+        <v>64</v>
       </c>
       <c r="H51">
-        <v>7459</v>
+        <v>869</v>
       </c>
       <c r="I51">
-        <v>868</v>
+        <v>101</v>
       </c>
       <c r="J51">
-        <v>1848</v>
+        <v>247</v>
       </c>
       <c r="K51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L51">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>312</v>
+        <v>41</v>
       </c>
       <c r="N51">
-        <v>495</v>
+        <v>62</v>
       </c>
       <c r="O51">
-        <v>564</v>
+        <v>66</v>
       </c>
       <c r="P51">
-        <v>1703</v>
+        <v>216</v>
       </c>
       <c r="Q51">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="R51">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="S51">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="T51">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="U51">
-        <v>931</v>
+        <v>100</v>
       </c>
       <c r="V51">
-        <v>2056</v>
+        <v>250</v>
       </c>
       <c r="W51">
-        <v>0.47</v>
+        <v>0.409</v>
       </c>
       <c r="X51">
-        <v>0.211</v>
+        <v>0.269</v>
       </c>
       <c r="Y51">
-        <v>0.63</v>
+        <v>0.661</v>
       </c>
       <c r="Z51">
-        <v>15.8</v>
+        <v>13.6</v>
       </c>
       <c r="AA51">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="AB51">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC51">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD51" t="s">
         <v>154</v>
@@ -5515,76 +5503,76 @@
         <v>22</v>
       </c>
       <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>75</v>
+      </c>
+      <c r="H52">
+        <v>1305</v>
+      </c>
+      <c r="I52">
+        <v>128</v>
+      </c>
+      <c r="J52">
+        <v>230</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>85</v>
+      </c>
+      <c r="N52">
+        <v>120</v>
+      </c>
+      <c r="O52">
+        <v>110</v>
+      </c>
+      <c r="P52">
+        <v>297</v>
+      </c>
+      <c r="Q52">
+        <v>13</v>
+      </c>
+      <c r="R52">
         <v>16</v>
       </c>
-      <c r="G52">
-        <v>810</v>
-      </c>
-      <c r="H52">
-        <v>20500</v>
-      </c>
-      <c r="I52">
-        <v>2207</v>
-      </c>
-      <c r="J52">
-        <v>4451</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>2</v>
-      </c>
-      <c r="M52">
-        <v>1395</v>
-      </c>
-      <c r="N52">
-        <v>1965</v>
-      </c>
-      <c r="O52">
-        <v>1543</v>
-      </c>
-      <c r="P52">
-        <v>4596</v>
-      </c>
-      <c r="Q52">
-        <v>465</v>
-      </c>
-      <c r="R52">
-        <v>393</v>
-      </c>
       <c r="S52">
-        <v>1968</v>
+        <v>116</v>
       </c>
       <c r="T52">
-        <v>1001</v>
+        <v>56</v>
       </c>
       <c r="U52">
-        <v>2288</v>
+        <v>144</v>
       </c>
       <c r="V52">
-        <v>5809</v>
+        <v>341</v>
       </c>
       <c r="W52">
-        <v>0.496</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="X52">
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="Z52">
-        <v>25.3</v>
+        <v>17.4</v>
       </c>
       <c r="AA52">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="AB52">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="AC52">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AD52" t="s">
         <v>154</v>
@@ -5607,76 +5595,76 @@
         <v>22</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="H53">
-        <v>12071</v>
+        <v>2460</v>
       </c>
       <c r="I53">
-        <v>1999</v>
+        <v>401</v>
       </c>
       <c r="J53">
-        <v>4208</v>
+        <v>877</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M53">
-        <v>945</v>
+        <v>219</v>
       </c>
       <c r="N53">
-        <v>1345</v>
+        <v>299</v>
       </c>
       <c r="O53">
-        <v>856</v>
+        <v>178</v>
       </c>
       <c r="P53">
-        <v>2745</v>
+        <v>570</v>
       </c>
       <c r="Q53">
-        <v>623</v>
+        <v>109</v>
       </c>
       <c r="R53">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="S53">
-        <v>302</v>
+        <v>55</v>
       </c>
       <c r="T53">
-        <v>744</v>
+        <v>157</v>
       </c>
       <c r="U53">
-        <v>1365</v>
+        <v>226</v>
       </c>
       <c r="V53">
-        <v>4945</v>
+        <v>1021</v>
       </c>
       <c r="W53">
-        <v>0.475</v>
+        <v>0.457</v>
       </c>
       <c r="X53">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <v>0.703</v>
+        <v>0.732</v>
       </c>
       <c r="Z53">
-        <v>30.6</v>
+        <v>31.9</v>
       </c>
       <c r="AA53">
-        <v>12.5</v>
+        <v>13.3</v>
       </c>
       <c r="AB53">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AC53">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AD53" t="s">
         <v>154</v>
@@ -5699,76 +5687,73 @@
         <v>22</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>403</v>
+        <v>69</v>
       </c>
       <c r="H54">
-        <v>5374</v>
+        <v>997</v>
       </c>
       <c r="I54">
-        <v>583</v>
+        <v>106</v>
       </c>
       <c r="J54">
-        <v>1099</v>
+        <v>187</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>288</v>
+        <v>51</v>
       </c>
       <c r="N54">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="O54">
-        <v>437</v>
+        <v>78</v>
       </c>
       <c r="P54">
-        <v>1169</v>
+        <v>203</v>
       </c>
       <c r="Q54">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="R54">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="S54">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="T54">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="U54">
-        <v>1135</v>
+        <v>199</v>
       </c>
       <c r="V54">
-        <v>1454</v>
+        <v>263</v>
       </c>
       <c r="W54">
-        <v>0.53</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Y54">
-        <v>0.658</v>
+        <v>0.662</v>
       </c>
       <c r="Z54">
-        <v>13.3</v>
+        <v>14.4</v>
       </c>
       <c r="AA54">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB54">
         <v>2.9</v>
       </c>
       <c r="AC54">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD54" t="s">
         <v>154</v>
@@ -5883,76 +5868,76 @@
         <v>23</v>
       </c>
       <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>62</v>
+      </c>
+      <c r="H56">
+        <v>845</v>
+      </c>
+      <c r="I56">
+        <v>113</v>
+      </c>
+      <c r="J56">
+        <v>292</v>
+      </c>
+      <c r="K56">
+        <v>42</v>
+      </c>
+      <c r="L56">
+        <v>122</v>
+      </c>
+      <c r="M56">
+        <v>35</v>
+      </c>
+      <c r="N56">
+        <v>42</v>
+      </c>
+      <c r="O56">
+        <v>28</v>
+      </c>
+      <c r="P56">
+        <v>74</v>
+      </c>
+      <c r="Q56">
+        <v>68</v>
+      </c>
+      <c r="R56">
+        <v>32</v>
+      </c>
+      <c r="S56">
         <v>4</v>
       </c>
-      <c r="G56">
-        <v>172</v>
-      </c>
-      <c r="H56">
-        <v>2350</v>
-      </c>
-      <c r="I56">
-        <v>315</v>
-      </c>
-      <c r="J56">
-        <v>760</v>
-      </c>
-      <c r="K56">
-        <v>97</v>
-      </c>
-      <c r="L56">
-        <v>285</v>
-      </c>
-      <c r="M56">
-        <v>124</v>
-      </c>
-      <c r="N56">
-        <v>152</v>
-      </c>
-      <c r="O56">
-        <v>81</v>
-      </c>
-      <c r="P56">
-        <v>226</v>
-      </c>
-      <c r="Q56">
-        <v>177</v>
-      </c>
-      <c r="R56">
-        <v>91</v>
-      </c>
-      <c r="S56">
-        <v>7</v>
-      </c>
       <c r="T56">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="U56">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="V56">
-        <v>851</v>
+        <v>303</v>
       </c>
       <c r="W56">
-        <v>0.414</v>
+        <v>0.387</v>
       </c>
       <c r="X56">
-        <v>0.34</v>
+        <v>0.344</v>
       </c>
       <c r="Y56">
-        <v>0.8159999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="Z56">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="AA56">
         <v>4.9</v>
       </c>
       <c r="AB56">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD56" t="s">
         <v>154</v>
@@ -5975,73 +5960,73 @@
         <v>23</v>
       </c>
       <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>49</v>
+      </c>
+      <c r="H57">
+        <v>372</v>
+      </c>
+      <c r="I57">
+        <v>32</v>
+      </c>
+      <c r="J57">
+        <v>90</v>
+      </c>
+      <c r="K57">
         <v>2</v>
       </c>
-      <c r="G57">
-        <v>66</v>
-      </c>
-      <c r="H57">
-        <v>479</v>
-      </c>
-      <c r="I57">
-        <v>46</v>
-      </c>
-      <c r="J57">
-        <v>138</v>
-      </c>
-      <c r="K57">
-        <v>5</v>
-      </c>
       <c r="L57">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M57">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N57">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O57">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="P57">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="R57">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T57">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="U57">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="V57">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="W57">
-        <v>0.333</v>
+        <v>0.356</v>
       </c>
       <c r="X57">
-        <v>0.25</v>
+        <v>0.222</v>
       </c>
       <c r="Y57">
-        <v>0.647</v>
+        <v>0.75</v>
       </c>
       <c r="Z57">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AA57">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AB57">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AC57">
         <v>0.3</v>
@@ -6156,76 +6141,76 @@
         <v>31</v>
       </c>
       <c r="F59">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>470</v>
+        <v>73</v>
       </c>
       <c r="H59">
-        <v>11375</v>
+        <v>1735</v>
       </c>
       <c r="I59">
-        <v>2082</v>
+        <v>394</v>
       </c>
       <c r="J59">
-        <v>4160</v>
+        <v>723</v>
       </c>
       <c r="K59">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="L59">
-        <v>415</v>
+        <v>104</v>
       </c>
       <c r="M59">
-        <v>1329</v>
+        <v>231</v>
       </c>
       <c r="N59">
-        <v>1690</v>
+        <v>305</v>
       </c>
       <c r="O59">
-        <v>734</v>
+        <v>147</v>
       </c>
       <c r="P59">
-        <v>3436</v>
+        <v>588</v>
       </c>
       <c r="Q59">
-        <v>964</v>
+        <v>130</v>
       </c>
       <c r="R59">
-        <v>370</v>
+        <v>64</v>
       </c>
       <c r="S59">
-        <v>494</v>
+        <v>78</v>
       </c>
       <c r="T59">
-        <v>837</v>
+        <v>154</v>
       </c>
       <c r="U59">
-        <v>1290</v>
+        <v>211</v>
       </c>
       <c r="V59">
-        <v>5629</v>
+        <v>1058</v>
       </c>
       <c r="W59">
-        <v>0.5</v>
+        <v>0.545</v>
       </c>
       <c r="X59">
-        <v>0.328</v>
+        <v>0.375</v>
       </c>
       <c r="Y59">
-        <v>0.786</v>
+        <v>0.757</v>
       </c>
       <c r="Z59">
-        <v>24.2</v>
+        <v>23.8</v>
       </c>
       <c r="AA59">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AB59">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="AC59">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AD59" t="s">
         <v>154</v>
@@ -6248,73 +6233,73 @@
         <v>20</v>
       </c>
       <c r="F60">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>1030</v>
+        <v>82</v>
       </c>
       <c r="H60">
-        <v>27022</v>
+        <v>2821</v>
       </c>
       <c r="I60">
-        <v>4325</v>
+        <v>469</v>
       </c>
       <c r="J60">
-        <v>9512</v>
+        <v>1024</v>
       </c>
       <c r="K60">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L60">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="M60">
-        <v>2528</v>
+        <v>303</v>
       </c>
       <c r="N60">
-        <v>3200</v>
+        <v>392</v>
       </c>
       <c r="O60">
-        <v>2456</v>
+        <v>300</v>
       </c>
       <c r="P60">
-        <v>6575</v>
+        <v>717</v>
       </c>
       <c r="Q60">
-        <v>1010</v>
+        <v>79</v>
       </c>
       <c r="R60">
-        <v>606</v>
+        <v>85</v>
       </c>
       <c r="S60">
-        <v>868</v>
+        <v>134</v>
       </c>
       <c r="T60">
-        <v>1290</v>
+        <v>138</v>
       </c>
       <c r="U60">
-        <v>2974</v>
+        <v>224</v>
       </c>
       <c r="V60">
-        <v>11208</v>
+        <v>1251</v>
       </c>
       <c r="W60">
-        <v>0.455</v>
+        <v>0.458</v>
       </c>
       <c r="X60">
-        <v>0.238</v>
+        <v>0.357</v>
       </c>
       <c r="Y60">
-        <v>0.79</v>
+        <v>0.773</v>
       </c>
       <c r="Z60">
-        <v>26.2</v>
+        <v>34.4</v>
       </c>
       <c r="AA60">
-        <v>10.9</v>
+        <v>15.3</v>
       </c>
       <c r="AB60">
-        <v>6.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC60">
         <v>1</v>
@@ -6340,76 +6325,76 @@
         <v>22</v>
       </c>
       <c r="F61">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>846</v>
+        <v>43</v>
       </c>
       <c r="H61">
-        <v>23132</v>
+        <v>389</v>
       </c>
       <c r="I61">
-        <v>2144</v>
+        <v>42</v>
       </c>
       <c r="J61">
-        <v>5054</v>
+        <v>100</v>
       </c>
       <c r="K61">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>265</v>
+        <v>10</v>
       </c>
       <c r="M61">
-        <v>1448</v>
+        <v>29</v>
       </c>
       <c r="N61">
-        <v>1897</v>
+        <v>49</v>
       </c>
       <c r="O61">
-        <v>419</v>
+        <v>9</v>
       </c>
       <c r="P61">
-        <v>2141</v>
+        <v>43</v>
       </c>
       <c r="Q61">
-        <v>4245</v>
+        <v>73</v>
       </c>
       <c r="R61">
-        <v>975</v>
+        <v>28</v>
       </c>
       <c r="S61">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="T61">
-        <v>1391</v>
+        <v>38</v>
       </c>
       <c r="U61">
-        <v>2013</v>
+        <v>53</v>
       </c>
       <c r="V61">
-        <v>5791</v>
+        <v>115</v>
       </c>
       <c r="W61">
-        <v>0.424</v>
+        <v>0.42</v>
       </c>
       <c r="X61">
-        <v>0.208</v>
+        <v>0.2</v>
       </c>
       <c r="Y61">
-        <v>0.763</v>
+        <v>0.592</v>
       </c>
       <c r="Z61">
-        <v>27.3</v>
+        <v>9</v>
       </c>
       <c r="AA61">
-        <v>6.8</v>
+        <v>2.7</v>
       </c>
       <c r="AB61">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AC61">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="AD61" t="s">
         <v>154</v>
@@ -6432,76 +6417,76 @@
         <v>21</v>
       </c>
       <c r="F62">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>970</v>
+        <v>72</v>
       </c>
       <c r="H62">
-        <v>30222</v>
+        <v>2701</v>
       </c>
       <c r="I62">
-        <v>5386</v>
+        <v>452</v>
       </c>
       <c r="J62">
-        <v>13182</v>
+        <v>1091</v>
       </c>
       <c r="K62">
-        <v>988</v>
+        <v>93</v>
       </c>
       <c r="L62">
-        <v>3202</v>
+        <v>292</v>
       </c>
       <c r="M62">
-        <v>4649</v>
+        <v>387</v>
       </c>
       <c r="N62">
-        <v>5659</v>
+        <v>518</v>
       </c>
       <c r="O62">
-        <v>926</v>
+        <v>90</v>
       </c>
       <c r="P62">
-        <v>3067</v>
+        <v>265</v>
       </c>
       <c r="Q62">
-        <v>3240</v>
+        <v>278</v>
       </c>
       <c r="R62">
-        <v>869</v>
+        <v>76</v>
       </c>
       <c r="S62">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="T62">
-        <v>2641</v>
+        <v>252</v>
       </c>
       <c r="U62">
-        <v>1810</v>
+        <v>179</v>
       </c>
       <c r="V62">
-        <v>16409</v>
+        <v>1384</v>
       </c>
       <c r="W62">
-        <v>0.409</v>
+        <v>0.414</v>
       </c>
       <c r="X62">
-        <v>0.309</v>
+        <v>0.318</v>
       </c>
       <c r="Y62">
-        <v>0.822</v>
+        <v>0.747</v>
       </c>
       <c r="Z62">
-        <v>31.2</v>
+        <v>37.5</v>
       </c>
       <c r="AA62">
-        <v>16.9</v>
+        <v>19.2</v>
       </c>
       <c r="AB62">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AC62">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="AD62" t="s">
         <v>154</v>
@@ -6524,76 +6509,76 @@
         <v>22</v>
       </c>
       <c r="F63">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>878</v>
+        <v>70</v>
       </c>
       <c r="H63">
-        <v>29106</v>
+        <v>2865</v>
       </c>
       <c r="I63">
-        <v>4329</v>
+        <v>481</v>
       </c>
       <c r="J63">
-        <v>10662</v>
+        <v>1129</v>
       </c>
       <c r="K63">
-        <v>1236</v>
+        <v>133</v>
       </c>
       <c r="L63">
-        <v>3464</v>
+        <v>337</v>
       </c>
       <c r="M63">
-        <v>1869</v>
+        <v>236</v>
       </c>
       <c r="N63">
-        <v>2244</v>
+        <v>296</v>
       </c>
       <c r="O63">
-        <v>703</v>
+        <v>59</v>
       </c>
       <c r="P63">
-        <v>3039</v>
+        <v>281</v>
       </c>
       <c r="Q63">
-        <v>5371</v>
+        <v>653</v>
       </c>
       <c r="R63">
-        <v>953</v>
+        <v>98</v>
       </c>
       <c r="S63">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="T63">
-        <v>2039</v>
+        <v>267</v>
       </c>
       <c r="U63">
-        <v>1705</v>
+        <v>166</v>
       </c>
       <c r="V63">
-        <v>11763</v>
+        <v>1331</v>
       </c>
       <c r="W63">
-        <v>0.406</v>
+        <v>0.426</v>
       </c>
       <c r="X63">
-        <v>0.357</v>
+        <v>0.395</v>
       </c>
       <c r="Y63">
-        <v>0.833</v>
+        <v>0.797</v>
       </c>
       <c r="Z63">
-        <v>33.2</v>
+        <v>40.9</v>
       </c>
       <c r="AA63">
-        <v>13.4</v>
+        <v>19</v>
       </c>
       <c r="AB63">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AC63">
-        <v>6.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD63" t="s">
         <v>154</v>
@@ -6616,76 +6601,76 @@
         <v>22</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>657</v>
+        <v>79</v>
       </c>
       <c r="H64">
-        <v>15597</v>
+        <v>1150</v>
       </c>
       <c r="I64">
-        <v>1918</v>
+        <v>148</v>
       </c>
       <c r="J64">
-        <v>4628</v>
+        <v>360</v>
       </c>
       <c r="K64">
-        <v>423</v>
+        <v>27</v>
       </c>
       <c r="L64">
-        <v>1303</v>
+        <v>78</v>
       </c>
       <c r="M64">
-        <v>1395</v>
+        <v>99</v>
       </c>
       <c r="N64">
-        <v>2024</v>
+        <v>141</v>
       </c>
       <c r="O64">
-        <v>586</v>
+        <v>34</v>
       </c>
       <c r="P64">
-        <v>2240</v>
+        <v>135</v>
       </c>
       <c r="Q64">
-        <v>2474</v>
+        <v>233</v>
       </c>
       <c r="R64">
-        <v>641</v>
+        <v>56</v>
       </c>
       <c r="S64">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="T64">
-        <v>1231</v>
+        <v>115</v>
       </c>
       <c r="U64">
-        <v>1477</v>
+        <v>126</v>
       </c>
       <c r="V64">
-        <v>5654</v>
+        <v>422</v>
       </c>
       <c r="W64">
-        <v>0.414</v>
+        <v>0.411</v>
       </c>
       <c r="X64">
-        <v>0.325</v>
+        <v>0.346</v>
       </c>
       <c r="Y64">
-        <v>0.6889999999999999</v>
+        <v>0.702</v>
       </c>
       <c r="Z64">
-        <v>23.7</v>
+        <v>14.6</v>
       </c>
       <c r="AA64">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="AB64">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="AC64">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD64" t="s">
         <v>154</v>
@@ -6791,76 +6776,76 @@
         <v>23</v>
       </c>
       <c r="F66">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>1110</v>
+        <v>74</v>
       </c>
       <c r="H66">
-        <v>27160</v>
+        <v>1655</v>
       </c>
       <c r="I66">
-        <v>3836</v>
+        <v>274</v>
       </c>
       <c r="J66">
-        <v>7894</v>
+        <v>547</v>
       </c>
       <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>118</v>
+      </c>
+      <c r="N66">
+        <v>178</v>
+      </c>
+      <c r="O66">
+        <v>122</v>
+      </c>
+      <c r="P66">
+        <v>439</v>
+      </c>
+      <c r="Q66">
+        <v>46</v>
+      </c>
+      <c r="R66">
+        <v>47</v>
+      </c>
+      <c r="S66">
+        <v>36</v>
+      </c>
+      <c r="T66">
+        <v>98</v>
+      </c>
+      <c r="U66">
+        <v>271</v>
+      </c>
+      <c r="V66">
+        <v>666</v>
+      </c>
+      <c r="W66">
+        <v>0.501</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0.663</v>
+      </c>
+      <c r="Z66">
+        <v>22.4</v>
+      </c>
+      <c r="AA66">
         <v>9</v>
       </c>
-      <c r="L66">
-        <v>32</v>
-      </c>
-      <c r="M66">
-        <v>1292</v>
-      </c>
-      <c r="N66">
-        <v>1701</v>
-      </c>
-      <c r="O66">
-        <v>1922</v>
-      </c>
-      <c r="P66">
-        <v>7328</v>
-      </c>
-      <c r="Q66">
-        <v>1204</v>
-      </c>
-      <c r="R66">
-        <v>724</v>
-      </c>
-      <c r="S66">
-        <v>841</v>
-      </c>
-      <c r="T66">
-        <v>1241</v>
-      </c>
-      <c r="U66">
-        <v>3579</v>
-      </c>
-      <c r="V66">
-        <v>8973</v>
-      </c>
-      <c r="W66">
-        <v>0.486</v>
-      </c>
-      <c r="X66">
-        <v>0.281</v>
-      </c>
-      <c r="Y66">
-        <v>0.76</v>
-      </c>
-      <c r="Z66">
-        <v>24.5</v>
-      </c>
-      <c r="AA66">
-        <v>8.1</v>
-      </c>
       <c r="AB66">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AC66">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AD66" t="s">
         <v>154</v>
@@ -6883,76 +6868,76 @@
         <v>21</v>
       </c>
       <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>69</v>
+      </c>
+      <c r="H67">
+        <v>1219</v>
+      </c>
+      <c r="I67">
+        <v>220</v>
+      </c>
+      <c r="J67">
+        <v>429</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
         <v>9</v>
       </c>
-      <c r="G67">
-        <v>506</v>
-      </c>
-      <c r="H67">
-        <v>9866</v>
-      </c>
-      <c r="I67">
-        <v>1792</v>
-      </c>
-      <c r="J67">
-        <v>3580</v>
-      </c>
-      <c r="K67">
-        <v>4</v>
-      </c>
-      <c r="L67">
+      <c r="M67">
+        <v>78</v>
+      </c>
+      <c r="N67">
+        <v>141</v>
+      </c>
+      <c r="O67">
+        <v>84</v>
+      </c>
+      <c r="P67">
+        <v>238</v>
+      </c>
+      <c r="Q67">
         <v>50</v>
       </c>
-      <c r="M67">
-        <v>778</v>
-      </c>
-      <c r="N67">
-        <v>1210</v>
-      </c>
-      <c r="O67">
-        <v>842</v>
-      </c>
-      <c r="P67">
-        <v>2276</v>
-      </c>
-      <c r="Q67">
-        <v>504</v>
-      </c>
       <c r="R67">
-        <v>223</v>
+        <v>25</v>
       </c>
       <c r="S67">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="T67">
-        <v>599</v>
+        <v>92</v>
       </c>
       <c r="U67">
-        <v>1096</v>
+        <v>116</v>
       </c>
       <c r="V67">
-        <v>4366</v>
+        <v>518</v>
       </c>
       <c r="W67">
-        <v>0.501</v>
+        <v>0.513</v>
       </c>
       <c r="X67">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Y67">
-        <v>0.643</v>
+        <v>0.553</v>
       </c>
       <c r="Z67">
-        <v>19.5</v>
+        <v>17.7</v>
       </c>
       <c r="AA67">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB67">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AC67">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD67" t="s">
         <v>154</v>
@@ -7067,76 +7052,76 @@
         <v>22</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>1156</v>
+        <v>266</v>
       </c>
       <c r="I69">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="J69">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="N69">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="O69">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="P69">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="Q69">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="R69">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="S69">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="T69">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="U69">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="V69">
-        <v>341</v>
+        <v>64</v>
       </c>
       <c r="W69">
-        <v>0.423</v>
+        <v>0.338</v>
       </c>
       <c r="X69">
         <v>0</v>
       </c>
       <c r="Y69">
-        <v>0.638</v>
+        <v>0.556</v>
       </c>
       <c r="Z69">
-        <v>9.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AA69">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="AB69">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AC69">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD69" t="s">
         <v>154</v>
@@ -7159,76 +7144,76 @@
         <v>21</v>
       </c>
       <c r="F70">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>1109</v>
+        <v>65</v>
       </c>
       <c r="H70">
-        <v>36243</v>
+        <v>1788</v>
       </c>
       <c r="I70">
-        <v>6320</v>
+        <v>275</v>
       </c>
       <c r="J70">
-        <v>13529</v>
+        <v>565</v>
       </c>
       <c r="K70">
-        <v>1086</v>
+        <v>27</v>
       </c>
       <c r="L70">
-        <v>3228</v>
+        <v>82</v>
       </c>
       <c r="M70">
-        <v>2280</v>
+        <v>78</v>
       </c>
       <c r="N70">
-        <v>3162</v>
+        <v>120</v>
       </c>
       <c r="O70">
-        <v>1578</v>
+        <v>93</v>
       </c>
       <c r="P70">
-        <v>7404</v>
+        <v>303</v>
       </c>
       <c r="Q70">
-        <v>1994</v>
+        <v>85</v>
       </c>
       <c r="R70">
-        <v>1090</v>
+        <v>42</v>
       </c>
       <c r="S70">
-        <v>1460</v>
+        <v>54</v>
       </c>
       <c r="T70">
-        <v>1693</v>
+        <v>103</v>
       </c>
       <c r="U70">
-        <v>3259</v>
+        <v>206</v>
       </c>
       <c r="V70">
-        <v>16006</v>
+        <v>655</v>
       </c>
       <c r="W70">
-        <v>0.467</v>
+        <v>0.487</v>
       </c>
       <c r="X70">
-        <v>0.336</v>
+        <v>0.329</v>
       </c>
       <c r="Y70">
-        <v>0.721</v>
+        <v>0.65</v>
       </c>
       <c r="Z70">
-        <v>32.7</v>
+        <v>27.5</v>
       </c>
       <c r="AA70">
-        <v>14.4</v>
+        <v>10.1</v>
       </c>
       <c r="AB70">
-        <v>6.7</v>
+        <v>4.7</v>
       </c>
       <c r="AC70">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AD70" t="s">
         <v>154</v>
@@ -7429,76 +7414,76 @@
         <v>23</v>
       </c>
       <c r="F73">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>658</v>
+        <v>64</v>
       </c>
       <c r="H73">
-        <v>15731</v>
+        <v>1470</v>
       </c>
       <c r="I73">
-        <v>1865</v>
+        <v>241</v>
       </c>
       <c r="J73">
-        <v>4490</v>
+        <v>546</v>
       </c>
       <c r="K73">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="L73">
-        <v>688</v>
+        <v>10</v>
       </c>
       <c r="M73">
-        <v>1693</v>
+        <v>200</v>
       </c>
       <c r="N73">
-        <v>2301</v>
+        <v>298</v>
       </c>
       <c r="O73">
-        <v>704</v>
+        <v>92</v>
       </c>
       <c r="P73">
-        <v>2139</v>
+        <v>217</v>
       </c>
       <c r="Q73">
-        <v>936</v>
+        <v>70</v>
       </c>
       <c r="R73">
-        <v>548</v>
+        <v>56</v>
       </c>
       <c r="S73">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="T73">
-        <v>789</v>
+        <v>88</v>
       </c>
       <c r="U73">
-        <v>1596</v>
+        <v>147</v>
       </c>
       <c r="V73">
-        <v>5642</v>
+        <v>685</v>
       </c>
       <c r="W73">
-        <v>0.415</v>
+        <v>0.441</v>
       </c>
       <c r="X73">
-        <v>0.318</v>
+        <v>0.3</v>
       </c>
       <c r="Y73">
-        <v>0.736</v>
+        <v>0.671</v>
       </c>
       <c r="Z73">
-        <v>23.9</v>
+        <v>23</v>
       </c>
       <c r="AA73">
-        <v>8.6</v>
+        <v>10.7</v>
       </c>
       <c r="AB73">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AC73">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AD73" t="s">
         <v>154</v>
@@ -7521,76 +7506,76 @@
         <v>22</v>
       </c>
       <c r="F74">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>822</v>
+        <v>53</v>
       </c>
       <c r="H74">
-        <v>18749</v>
+        <v>609</v>
       </c>
       <c r="I74">
-        <v>3603</v>
+        <v>125</v>
       </c>
       <c r="J74">
-        <v>7355</v>
+        <v>268</v>
       </c>
       <c r="K74">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>1935</v>
+        <v>47</v>
       </c>
       <c r="N74">
-        <v>2710</v>
+        <v>84</v>
       </c>
       <c r="O74">
-        <v>1214</v>
+        <v>56</v>
       </c>
       <c r="P74">
-        <v>3183</v>
+        <v>114</v>
       </c>
       <c r="Q74">
-        <v>972</v>
+        <v>23</v>
       </c>
       <c r="R74">
-        <v>462</v>
+        <v>11</v>
       </c>
       <c r="S74">
-        <v>261</v>
+        <v>9</v>
       </c>
       <c r="T74">
-        <v>1316</v>
+        <v>76</v>
       </c>
       <c r="U74">
-        <v>2250</v>
+        <v>115</v>
       </c>
       <c r="V74">
-        <v>9147</v>
+        <v>297</v>
       </c>
       <c r="W74">
-        <v>0.49</v>
+        <v>0.466</v>
       </c>
       <c r="X74">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="Y74">
-        <v>0.714</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z74">
-        <v>22.8</v>
+        <v>11.5</v>
       </c>
       <c r="AA74">
-        <v>11.1</v>
+        <v>5.6</v>
       </c>
       <c r="AB74">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="AC74">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD74" t="s">
         <v>154</v>
@@ -7613,73 +7598,70 @@
         <v>22</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="H75">
-        <v>1328</v>
+        <v>888</v>
       </c>
       <c r="I75">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="J75">
-        <v>395</v>
+        <v>248</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>71</v>
+      </c>
+      <c r="N75">
+        <v>93</v>
+      </c>
+      <c r="O75">
+        <v>69</v>
+      </c>
+      <c r="P75">
+        <v>183</v>
+      </c>
+      <c r="Q75">
+        <v>16</v>
+      </c>
+      <c r="R75">
+        <v>9</v>
+      </c>
+      <c r="S75">
+        <v>7</v>
+      </c>
+      <c r="T75">
+        <v>38</v>
+      </c>
+      <c r="U75">
+        <v>170</v>
+      </c>
+      <c r="V75">
+        <v>281</v>
+      </c>
+      <c r="W75">
+        <v>0.423</v>
+      </c>
+      <c r="Y75">
+        <v>0.763</v>
+      </c>
+      <c r="Z75">
+        <v>12.5</v>
+      </c>
+      <c r="AA75">
         <v>4</v>
       </c>
-      <c r="M75">
-        <v>130</v>
-      </c>
-      <c r="N75">
-        <v>166</v>
-      </c>
-      <c r="O75">
-        <v>108</v>
-      </c>
-      <c r="P75">
-        <v>286</v>
-      </c>
-      <c r="Q75">
-        <v>32</v>
-      </c>
-      <c r="R75">
-        <v>14</v>
-      </c>
-      <c r="S75">
-        <v>12</v>
-      </c>
-      <c r="T75">
-        <v>69</v>
-      </c>
-      <c r="U75">
-        <v>241</v>
-      </c>
-      <c r="V75">
-        <v>453</v>
-      </c>
-      <c r="W75">
-        <v>0.408</v>
-      </c>
-      <c r="X75">
-        <v>0.25</v>
-      </c>
-      <c r="Y75">
-        <v>0.783</v>
-      </c>
-      <c r="Z75">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AA75">
-        <v>3.4</v>
-      </c>
       <c r="AB75">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AC75">
         <v>0.2</v>
